--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,14 +655,264 @@
           <t>1894</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20230103</t>
-        </is>
+      <c r="D9" t="n">
+        <v>20230103</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>18시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>모줄임 천장 구조</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>정효공주 무덤</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>정혜공주 무덤</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>05시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>서유구</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>지봉유설</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>임원경제지</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>05시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>홍대용</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>열하일기</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>의산문답</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>05시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>공주 석장리</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>빗살무늬 토기</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>남한 최초 발견 구석기 유적</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>05시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>과농소초</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>열하일기</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>05시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>동모산 일대(돈화)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>정효공주 무덤 위치</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>정혜공주 무덤 위치</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>05시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>토질에 따른 재배 품종 소개와 양잠법</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>양화소록</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>색경</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>05시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>강희맹</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>해동농서</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>금양잡록</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>05시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>정초</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>사시찬요</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>농사직설</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>05시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>서유구</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>과농소초</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>임원경제지</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20230105</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>05시 57분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -905,14 +905,364 @@
           <t>임원경제지</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>20230105</t>
-        </is>
+      <c r="D19" t="n">
+        <v>20230105</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>05시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>토질에 따른 재배 품종 소개와 양잠법</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>우서</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>색경</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>07시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>한전론(영업전)-토지 매매 하한선, 6좀 지적, 폐전론 주장</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>반계수록</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>성호사설</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>07시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>임하경륜</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>유형원</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>홍대용</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>07시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>이의민 집권</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1232년 : 고종</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1183년 : 명종</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>07시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>금양잡록</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>정초</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>강희맹</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>07시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>17세기</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>수령 수세제</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>설점 수세제</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>08시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>통일신라 김지정의 난 발발</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>892년 : 진성여왕</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>771년 : 혜공왕</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>08시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>미륵사지</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>금강계단 불사리탑</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>목탑 양식의 석탑</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>08시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>고구려 연개소문의 정변</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>643년 : 보장왕</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>638년 : 영류왕</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>08시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>전의감</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>이조</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>08시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>비변사 상설기구화</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1400 : 정종</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1555 : 명종</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>08시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>정중부 집권기, 공주 명학소에서 발생, 이후 명학소는 충순현으로 승격</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>전주 관노의 난</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>망이. 망소이의 난</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>08시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>신라 조부 설치</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>568년 : 진평왕</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>581년 : 진평왕</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>08시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1518년, 중종, 연장자와 연소자, 친구 사이의 윤리 강조</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>삼강행실도</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>이륜행실도</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20230106</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>08시 14분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1255,14 +1255,414 @@
           <t>이륜행실도</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>20230106</t>
-        </is>
+      <c r="D33" t="n">
+        <v>20230106</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>08시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>의산문답</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>유형원</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>홍대용</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>11시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>경세유표</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>홍대용</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>정약용</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>11시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>지봉유설</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>이수광</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>11시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>동국지리지</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>허임</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>한백겸</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>11시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>농가집성</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>정초</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>신속</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>11시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>북학의 저술</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>박제가</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>11시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>열하일기</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>유형원</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>11시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>임하경륜</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>유형원</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>홍대용</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>고구려 담징 일본에 종이 먹 제조법 전래</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>647년 : 보장왕</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>609년 : 영양왕</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>전지와 시지 지급, 관직의 고하와 인품 반영</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>역분전</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>시정 전시과</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>원각사 설립</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1908</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>조사 시찰단 파견</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1882</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1881</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>초조대장경 및 교장 소실</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1259년 : 고종</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1232년 : 고종</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>지전설, 무한 우주론</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>지봉유설</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>의산문답</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>톈진 조약</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1896</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>11시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>신라 품주 설치</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>512년 : 지증왕</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>562년 : 진흥왕</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>20230107</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1655,14 +1655,373 @@
           <t>562년 : 진흥왕</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>20230107</t>
-        </is>
+      <c r="D49" t="n">
+        <v>20230107</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>원각사 설립</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1884</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1908</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>11시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>북학의 저술</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>박제가</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>11시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>지봉유설</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>유형원</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>이수광</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>11시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>메가타 스티븐스 고문 파견</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1907</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>11시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>온건 개화파(사대당)
+① 김홍집·김윤식·어윤중 등
+② 민씨 정권과 결탁하여 청의 양무운동을 본받아 점진적인 개혁을 추구
+③ 전제 군주제 유지, 동도서기론(부분적 개혁) [20'국가직9급]
+④ 청과의 사대(유교적 사회 질서)를 유지</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>서광범갑신정변 :
+ 김옥균, 박영효, 홍영식, 서광범 등은 우정국 개국 축하연을 틈타 사대당 요인들을 살해하고 개화당 정부 수립</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>김윤식</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>11시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>온건 개화파(사대당)
+① 김홍집·김윤식·어윤중 등
+② 민씨 정권과 결탁하여 청의 양무운동을 본받아 점진적인 개혁을 추구
+③ 전제 군주제 유지, 동도서기론(부분적 개혁) [20'국가직9급]
+④ 청과의 사대(유교적 사회 질서)를 유지</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>홍영식</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>김윤식</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>11시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>자운서원</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>박세당이 양명학과 노장사상의 영향을 받아 주자의 학설을 비판하였다</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>윤휴</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>왕규의 난</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1019년 : 현종</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>945년 : 혜종</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>기발이승일도설 - '기'가 발해야 '이'가 올라탐</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>송악으로 천도</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>918년 : 태조</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>919년 : 태조</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>당의 발해국왕 책봉</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>780년 : 문왕</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>757년 : 문왕</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>11시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>[   ], [   ] 등이 서울, 경기에서 낙론을 형성한다</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>윤휴, 서경덕</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>이간, 홍대용</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>통일신라 발해 공격</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>687년 : 신문왕</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>732년 : 성덕왕</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>20230108</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2014,14 +2014,795 @@
           <t>732년 : 성덕왕</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>온건 개화파(사대당)
+① 김홍집·김윤식·어윤중 등
+② 민씨 정권과 결탁하여 청의 양무운동을 본받아 점진적인 개혁을 추구
+③ 전제 군주제 유지, 동도서기론(부분적 개혁) [20'국가직9급]
+④ 청과의 사대(유교적 사회 질서)를 유지</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>유길준</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>김윤식</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>17시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>성종, 강희맹, 경기 지방의 농사법</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>농사직설</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>금양잡록</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>17시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>호포법 실시</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1873</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1871</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>17시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>덕대 제도</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>설점 수세제</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>수령 수세제</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>17시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>대종교 창시</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1908</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>17시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>사심관제도 폐지</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1308년 : 충선왕</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1318년 : 충숙왕</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>17시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>영조사, 공야사, 산택사</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>공조</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>17시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>전주 관노의 난</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1232년 : 고종</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1182년 : 명종</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>17시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>유득공 발해고 저술</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1783 : 정조</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1784 : 정조</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>17시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>별사전을 신설하여 풍수지리업의 지사, 법계를 가진 승려에게 지급하였다</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>개정 전시과</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>경정 전시과</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>17시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>갑신정변 :
+ 김옥균, 박영효, 홍영식, 서광범 등은 우정국 개국 축하연을 틈타 사대당 요인들을 살해하고 개화당 정부 수립</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>김홍집</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>김옥균</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>17시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>조선은행 설립</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1897</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1896</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>17시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>일본에 조사 시찰단(신사 유람단) 파견 1881 :
+ 박정양, 어윤중, 홍영식 등을 보내 산업 시설 시찰</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>유길준</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>어윤중</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>17시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>17세기, 광산전문가) 각 공정 감독) 20-30명</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>두목</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>점장</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>17시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>(통일신라)재정, 회계</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>종속시</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>창부</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>17시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>단궁, 과하마, 반어피</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>옥저</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>동예</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>17시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>장례원 설치</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1393 : 태조</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1467 : 세조</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>17시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>발해 연호 대흥 사용</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>817년 : 선왕</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>733년 : 문왕</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>18시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>이조 전랑 통청권 후임 추천권 폐지</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1783 : 정조</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1741 : 영조</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>18시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>양산 통도사</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>목탑 양식의 석탑</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>금강계단 불사리탑</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>18시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>시헌력 사용</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1846 : 헌종</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1653 : 효종</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>18시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>반계수록</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>유형원</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>18시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>최승로의 시무 28조 저술</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1102년 : 숙종</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>982년 : 성종</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>18시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>해삼위 통상 사무 설치</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1889</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1900</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>18시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>신라 황룡사 건립</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>671년 : 문무왕</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>567년 : 진흥왕</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>18시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>통일신라 적고적의 난 발발</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>762년 : 혜공왕</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>894년 : 진성여왕</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>18시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>무애가</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>혜관</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>원효</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>18시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>의산문답</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>홍대용</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>18시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>현존 최고(最古) 신라비</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>영천 청제비</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>포항 중성리 신라비</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>18시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>석촌동 고분군</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>굴식 돌방무덤</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>계단식 돌무지무덤</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>18시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>법률, 형옥</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>내신좌평</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>조정좌평</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>20230108</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>11시 36분</t>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>18시 33분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2795,14 +2795,994 @@
           <t>조정좌평</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>20230108</t>
-        </is>
+      <c r="D94" t="n">
+        <v>20230108</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>18시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>일본에 조사 시찰단(신사 유람단) 파견 1881 :
+ 박정양, 어윤중, 홍영식 등을 보내 산업 시설 시찰</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>서광범</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>어윤중</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>05시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>시헌력 사용</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1634 : 인조</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1653 : 효종</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>05시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>무애가</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>김교각</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>원효</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>05시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>온건 개화파(사대당)
+① 김홍집·김윤식·어윤중 등
+② 민씨 정권과 결탁하여 청의 양무운동을 본받아 점진적인 개혁을 추구
+③ 전제 군주제 유지, 동도서기론(부분적 개혁) [20'국가직9급]
+④ 청과의 사대(유교적 사회 질서)를 유지</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>박규수</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>김윤식</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>05시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>호포법 실시</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1897</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1871</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>05시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>발해 연호 대흥 사용</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>817년 : 선왕</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>733년 : 문왕</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>05시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>백제 탐라 복속</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>526년 : 성왕</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>498년 : 동성왕</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>05시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>경신환국</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1770 : 영조</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1680 : 숙종</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>05시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>전습록변</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>유형원</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>05시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1433년, 세종, 앞서 편찬한 의학서 증보, 우리 풍토에 맞는 약재와 치료 방법 개발 및 정리</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>향약제생집성방</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>향약집성방</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>05시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>18세기, 채굴업주</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>덕대</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>혈주</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>05시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>최광수의 난</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1238년 : 고종</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1217년 : 고종</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>05시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>장용영 설치</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1787 : 정조</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1788 : 정조</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>05시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>관음신앙</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>원측</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>의상</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>05시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>16세기, 박상, 사림의 역사관 반영</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>고려국사</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>동국사략</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>05시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>통일신라 견훤 무진주 점령</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>901년 : 효공왕</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>889년 : 진성여왕</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>05시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>백화도량발원문</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>혜량</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>의상</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>05시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>발해 연호 대흥 사용</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>757년 : 문왕</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>733년 : 문왕</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>05시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>온건 개화파(사대당)
+① 김홍집·김윤식·어윤중 등
+② 민씨 정권과 결탁하여 청의 양무운동을 본받아 점진적인 개혁을 추구
+③ 전제 군주제 유지, 동도서기론(부분적 개혁) [20'국가직9급]
+④ 청과의 사대(유교적 사회 질서)를 유지</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>유인석</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>김윤식</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>06시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>16세기, 박상, 사림의 역사관 반영</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>발해고</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>동국사략</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>06시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>악학궤범, 성현</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>세종</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>성종</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>06시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>무애가</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>의상</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>원효</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>06시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>입성책동 발생</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1362년 : 공민왕</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>1309년 : 충선왕</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>06시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>선부</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>신문왕</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>문무왕</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>06시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>(백제) 일본에 천문, 역법 전파</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>혜량</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>관륵</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>06시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>원효 분황사</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>열반종</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>법성종</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>06시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>명나라 역법인 태통력 채용</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1359년 : 공민왕</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>1370년 : 공민왕</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>06시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>(조선) 매년 자체 시험 시행, 성적 우수자는 소과(생진과) 초시 면제하여 회시(복시) 응시 허용</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>성균관</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>향교</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>06시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>역학도해</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>유수원</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>김석문</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>06시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>견훤 후백제 건국</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>896년 : 효공왕</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>897년 : 효공왕</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>06시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>강조의 정변</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1018년 : 현종</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>1009년 : 목종</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>06시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>진표 금산사</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>법상종</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>06시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>최충헌 집권</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1232년 : 고종</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>1196년 : 명종</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>06시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>발해 정효공주묘 축조</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>780년 : 문왕</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>788년 : 문왕</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>06시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>신라 상복법 제정</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>501년 : 지증왕</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>504년 : 지증왕</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>06시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>(조선) 외교 문서 작성</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>집사부</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>승문원</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>06시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>수(守)</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>품계↑ 관직↓</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>품계↓ 관직↑</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>06시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>박지원 과농소초 저술</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1785 : 정조</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>1799 : 정조</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>06시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>이비 패좌의 난</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1196년 : 명종</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1202년 : 신종</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>20230111</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>06시 58분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3775,14 +3775,3739 @@
           <t>1202년 : 신종</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>20230111</t>
-        </is>
+      <c r="D133" t="n">
+        <v>20230111</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>06시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>암태도 소작쟁의</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>22시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>흥남 질소 비료 공장 건설</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>22시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>상하이 동제사 결성</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1917</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1912</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>22시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>박지원 과농소초 저술</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1788 : 정조</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1799 : 정조</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>22시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>조선혁명군 조직</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>22시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>강조의 정변</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1019년 : 현종</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1009년 : 목종</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>22시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>조선식산은행 설립</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>22시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>임시정부 광복군 사령부 설립</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>22시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>참의부 설립</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>22시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>일본에서 민정문서 발견</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>22시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>진표 금산사</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>법성종</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>법상종</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>22시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>권업회 결성</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1911</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>22시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>남면북양 정책</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>22시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>만주 사변</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>22시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>한국광복운동단체 연합회 결성</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>22시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>부전강 수력 발전소 건설</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>22시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>(백제) 일본에 천문, 역법 전파</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>노리사치계</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>관륵</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>22시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>조선의용군 조직</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1911</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>22시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>광주 학생 항일운동</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>22시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>간도 참변</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>22시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>중일 전쟁</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>22시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>박용만 조선국민회 결성</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>22시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>나석주 동양척식주식회사 조선식산은행 폭탄 투척</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>23시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>대화숙 설치</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>23시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>조선광문회 설립</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>23시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>조선민족전선연맹 결성</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>23시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>상하이 임시정부 수립</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>23시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>어업령 제정</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>1911</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>23시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>관동 대학살</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>23시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>방정환 소년 운동</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>23시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>조선어연구회 설립</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>23시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>박은식 신규식 상하이 대동보국단 결성</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>23시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>안악 사건</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>23시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>만주국 수립</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>23시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>도로 규칙 제정</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>1911</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>23시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">태평양 전쟁 발발 </t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>23시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>안창남 고국 방문 비행</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>23시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>안창호 흥사단 결성</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>1913</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>23시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>조선산직장려계 결성</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>23시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>워싱턴 구미 위원부 설치</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>23시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>수양동우회 결성</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>23시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>임금 통제령 실시</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>23시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>공출제도 실시</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>23시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>이회영 이시영 이동녕 등 남만주 신흥 강습소 설립</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>1911</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>23시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>선부</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>신문왕</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>문무왕</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>23시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>신라 상복법 제정</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>562년 : 진흥왕</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>504년 : 지증왕</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>23시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>호남선 경원선 건설</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>23시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>경성부민관 의거</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>23시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>입성책동 발생</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>1367년 : 공민왕</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>1309년 : 충선왕</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>23시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>대전자령 동경성 사도하자 전투</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>23시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>동북인민혁명군 조직</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>05시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>만주 사변</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>05시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>임시정부 4차 개헌</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>05시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>산미 증식 계획 재실행</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>05시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>이봉창 일본 국왕 암살 시도</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>05시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>남면북양 정책</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>05시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>조선광문회 설립</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>05시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>이동휘 한인사회당 결성</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>05시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>정의부 설립</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>05시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>명나라 역법인 태통력 채용</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>942년 : 태조</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>1370년 : 공민왕</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>05시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>천마산대 결성</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>1912</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>05시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>조선의용대 한국광복군 합류</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>05시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>관동 대학살</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>05시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>근로 보국대 창설</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>05시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>105인 사건</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>1911</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>05시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>도로 규칙 제정</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>1911</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>05시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>선부</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>신문왕</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>문무왕</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>05시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>기성단 결성</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>05시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>동아일보 일장기 삭제 보도</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>05시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>진표 금산사</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>법성종</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>법상종</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>05시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>조국광복회 설립</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1912</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>05시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>방정환 소년 운동</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>05시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>강우규 사이토 총독 암살 시도</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>05시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>신라 상복법 제정</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>561년 : 진흥왕</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>504년 : 지증왕</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>05시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>조선사편수회 설치</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>05시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>박은식 신규식 상하이 대동보국단 결성</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>05시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>28 독립 선언</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>06시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>조선 의용대 결성</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>06시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>조선민족전선연맹 결성</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>06시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>부전강 수력 발전소 건설</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>06시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>신한독립당 결성</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>06시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>수양동우회 결성</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>06시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>신한 혁명당의 대동단결 선언</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>1917</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>06시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>상하이 동제사 결성</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>1912</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>06시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>간민회 대한 국민회로 변경</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>06시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>조선어연구회 설립</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>06시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>조선혁명당 결성</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>06시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>천마산대 결성</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1917</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>06시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>신라 상복법 제정</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>642년 : 선덕여왕</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>504년 : 지증왕</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>06시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>경성부민관 의거</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>06시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>근로 보국대 창설</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>06시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>동북인민혁명군 조직</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>06시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>조선식산은행 설립</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>06시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>이동휘 한인사회당 결성</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>06시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>간민회 대한 국민회로 변경</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>06시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>조선청년독립단 결성</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>06시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>105인 사건</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1917</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>1911</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>06시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>물산 장려 운동</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>06시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>안창호 흥사단 결성</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1917</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>1913</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>06시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>신한독립당 결성</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>06시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>조선독립동맹 결성</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>06시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>조선의용군 조직</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>06시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>강우규 사이토 총독 암살 시도</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>07시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>조선독립동맹 결성</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>07시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>조선청년독립단 결성</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>07시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>정의부 설립</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>07시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>청구학회 결성</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1912</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>07시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>조국광복회 설립</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>07시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>이동휘 한인사회당 결성</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1913</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>07시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>조선사편수회 설치</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>07시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>조선어연구회 설립</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>07시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>조선민족전선연맹 결성</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>07시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>선부</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>신문왕</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>문무왕</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>07시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>대전자령 동경성 사도하자 전투</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>07시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>조선광문회 설립</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>07시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>조국광복회 설립</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>07시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>동북인민혁명군 조직</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>07시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>상하이 동제사 결성</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1917</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>1912</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>07시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>국민부 결성</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>07시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>입성책동 발생</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1275년 : 충렬왕</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>1309년 : 충선왕</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>07시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>대화숙 설치</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>07시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>수양동우회 결성</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1913</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>07시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>연초전매령 실시</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>07시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>근로 보국대 창설</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>07시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>신라 상복법 제정</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>660년 : 문무왕</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>504년 : 지증왕</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>07시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>신한독립당 결성</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>07시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>천마산대 결성</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1911</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>07시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>조선산직장려계 결성</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>07시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>중추원 관제 반포</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>1898</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>07시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>신속 농가집성 편찬</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1436 : 세종</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>1655 : 효종</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>07시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>거문도 사건</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1897</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>07시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>(고려) 어사대의 관원과 중서문하성의 낭사를 포함하며, 왕의 잘못을 논하는 간쟁, 봉박, 서경권을 갖고 있었다</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>충부</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>대간</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>07시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>정철의 건저 사건</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1607 : 선조</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>1591 : 선조</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>07시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>전, 현직 관리에게 차등 지급 18품), 관품만 반영</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>과전법</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>개정 전시과</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>07시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>스티븐스 사살</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1883</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>1908</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>07시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>&lt;기자실기&gt;</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>07시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>매일신문 창간</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>1898</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>07시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>훈춘 사건</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1912</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>07시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>안향 성리학 전래</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>986년 : 성종</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>1290년 : 충렬왕</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>07시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>통일신라 발해 공격</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>713년 : 성덕왕</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>732년 : 성덕왕</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>07시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>서적원 설치</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1357년 : 공민왕</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>1392년 : 공양왕</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>07시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>민족혁명당 창설</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>07시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>상하이 동제사 결성</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>1912</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>07시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>조선청년독립단 결성</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>07시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>청구학회 결성</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>07시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>연초전매령 실시</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>07시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>대화숙 설치</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>07시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>신한독립당 결성</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>07시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>&lt;기자실기&gt;</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>20230112</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>07시 53분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E282"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7500,14 +7500,231 @@
           <t>이이</t>
         </is>
       </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>20230112</t>
-        </is>
+      <c r="D282" t="n">
+        <v>20230112</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
           <t>07시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>&lt;기자실기&gt;</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>22시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>상하이 동제사 결성</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>1912</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>22시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>조선어연구회 설립</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>22시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>조국광복회 설립</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1913</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>22시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>&lt;기자실기&gt;</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>22시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>동북인민혁명군 조직</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>22시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>국민부 결성</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>22시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>경성부민관 의거</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr"/>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>22시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>청구학회 결성</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>20230113</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>22시 37분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7717,14 +7717,1685 @@
           <t>1930</t>
         </is>
       </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>20230113</t>
-        </is>
+      <c r="D291" t="n">
+        <v>20230113</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
           <t>22시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>남조선노동당 창당</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>15시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>민주국민당 창당</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>15시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>유엔 소총회의 남한 총선거 결의</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>15시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>선부</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>진평왕</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>문무왕</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>15시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>조선민주주의 인민공화국 수립</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>15시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>미국의 한반도 분할점령 제안</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>16시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>얄타 회담</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>16시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>농지개혁법 시행</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>16시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>김구 3천만 동포에게 읍고함 발표</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>16시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>조선청년독립단 결성</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>16시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>카이로 회담</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>16시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>트루먼 독트린 발표</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>16시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>조선인민공화국 선포</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>16시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>민족자주연맹 결성</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>16시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>북조선노동당 창당</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>16시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>애치슨 선언</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>16시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>진표 금산사</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>법성종</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>법상종</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>16시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>조선민족전선연맹 결성</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>16시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>청구학회 결성</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>16시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>대화숙 설치</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>16시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>독립촉성 중앙협의회 결성</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>16시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>민주국민당 창당</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>16시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>은행법 및 한국은행법 제정</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>16시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>농지개혁법 시행</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>16시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>민족자주연맹 결성</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>16시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>신라 상복법 제정</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>531년 : 법흥왕</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>504년 : 지증왕</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>16시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>510 총선거</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>16시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>민족주의 민족전선 결성</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>16시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>조국광복회 설립</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>16시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">모스크바 3국 외상회의 </t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>16시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>남조선 대한국민대표 민주의원 발족</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr"/>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>16시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>트루먼 독트린 발표</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>16시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>조선광문회 설립</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>16시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>조선민주당 결성</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>16시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>김구 피살</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>16시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>유엔 총의회 남북한 총선거 실시 결의</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>16시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>조국광복회 설립</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>16시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>김구 피살</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>16시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>얄타 회담</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>16시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>은행법 및 한국은행법 제정</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>16시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>남조선 대한국민대표 민주의원 발족</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>16시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>조선청년독립단 결성</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>16시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>민족자주연맹 결성</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>16시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>청구학회 결성</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>16시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>대화숙 설치</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>16시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>민족주의 민족전선 결성</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>16시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>남조선 대한국민대표 민주의원 발족</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>16시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>조선민족전선연맹 결성</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>16시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>조국광복회 설립</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>16시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>민족자주연맹 결성</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>16시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>독립촉성 중앙협의회 결성</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>16시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>이동휘 한인사회당 결성</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>16시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>민족자주연맹 결성</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>16시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>독립촉성 중앙협의회 결성</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>17시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>조선청년독립단 결성</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>17시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>조선광문회 설립</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>17시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>민족자주연맹 결성</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>17시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>조국광복회 설립</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>17시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>청구학회 결성</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>17시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>민족자주연맹 결성</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>17시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>영조, 금군강화, 병판 직속, 5군영 전체 지휘</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>금위영</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>용호영</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>17시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>[   ]이(가) 주기론의 선구자로 불교와 노장사상에 개방적인 태도를 보였다</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>윤휴</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>서경덕</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>17시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>최충헌의 교정도감 설치</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1196년 : 명종</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>1209년 : 희종</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>17시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>양산 통도사</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>백제의 5층 석탑</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>금강계단 불사리탑</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>17시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>탕평 교서 발표</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1746 : 영조</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>1725 : 영조</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>17시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>위화도 회군</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1389년 : 창왕</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>1388년 : 우왕</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>17시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>품주</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>문무왕</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>진덕 여왕</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>20230117</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>17시 31분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E358"/>
+  <dimension ref="A1:E370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9388,14 +9388,306 @@
           <t>진덕 여왕</t>
         </is>
       </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>20230117</t>
-        </is>
+      <c r="D358" t="n">
+        <v>20230117</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
           <t>17시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>조선광문회 설립</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>07시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>민족자주연맹 결성</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr"/>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>07시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>품주</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>진평왕</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>진덕 여왕</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>07시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>조국광복회 설립</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1913</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>07시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>학보 설치</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>919년 : 태조</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>930년 : 태조</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>07시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>국문동식회 설립</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr"/>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>1896</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>07시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>상평통보 발행 시작</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1731 : 영조</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>1634 : 인조</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>07시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>신라 사비에 소부리주 설치</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>509년 : 지증왕</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>668년 : 문무왕</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>07시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>쌍성총관부 설치</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1234년 : 고종</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>1258년 : 고종</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>07시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>속오군체제로 개편</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1417 : 태종</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>1594 : 선조</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>07시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>(원인) 일본이 청 · 일 전쟁에서 승세를 잡게 되자 반일적인 대원군을 축출하고 군국기무처 폐지</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>동학농민운동</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>08시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>안향 성리학 전래</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1370년 : 공민왕</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>1290년 : 충렬왕</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>20230123</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>08시 19분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 종합.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E370"/>
+  <dimension ref="A1:E402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9680,14 +9680,810 @@
           <t>1290년 : 충렬왕</t>
         </is>
       </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>20230123</t>
-        </is>
+      <c r="D370" t="n">
+        <v>20230123</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
           <t>08시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>도산서원</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>14시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대한매일신보(1904 ~ 1910) </t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>최초의 일간지, 양홍묵 발행, 이승만 기자로 활동</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>순한글 + 영문판 + 국한문 혼용체</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>14시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>순조의 친정 시작</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr"/>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>순조 : 1804</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>14시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>공주 석장리</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>한반도 최고(古) 구석기 유적</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>남한 최초 발견 구석기 유적</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>14시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>양양 오산리</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>신석기 시대 유적</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>덧무늬 토기</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>14시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>홍재학 만언척사소 상소</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1860년대 </t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>1880년대 : 1881</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>14시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>명종, 최충헌</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>고종, 최우</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>14시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>통일신라 견훤 무진주 점령</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">효공왕 </t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>진성여왕 : 889년</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>14시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>초기 개화파 :
+ 박규수, 오경석, 유홍기 등의 외국의 통상 수교 수용과 근대적 기술 도입 주장</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>김윤식</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>오경석</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>15시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>주리론의 선구자인 [   ]이(가) &lt;일강십목소&gt;를 중종에게 바쳤다</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>이언적</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>15시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>원의 법의학서 무원록 주해</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>동의수세보원</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>신주무원록</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>15시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>(원인) 한성 조약 체결 1884 :
+ 일본에게 배상금 지불과 공사관 신축비 부담을 내용으로 함</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>임오군란</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>갑신정변</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>15시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>경찰범 처벌 규칙 제정</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1935~1939 </t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>1910~1914 : 1912</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>15시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>상하이 사변</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1935~1939 </t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>1930~1934 : 1932</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>15시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>최항 집권</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>고종, 최충헌</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>고종, 최우</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>15시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>조일 통상장정</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1880년대 </t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>1870년대 : 1876</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>15시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>(통일신라)토목, 건축</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>주자감</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>예작부</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>15시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>상하이 동제사 결성</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1915~1919 </t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>1910~1914 : 1912</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>15시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>애치슨 선언</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>15시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>(1) 삼국간섭으로 약화된 세력을 만회하기 위해 경복궁을 습격하여 명성 황후를 시해
+(2) 친일적인 제4차 김홍집 내각을 수립하여 을미개혁 추진(유길준 주도)</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>서광범</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>유길준</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>15시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>강우규 사이토 총독 암살 시도</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1920~1924 </t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>1915~1919 : 1919</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>15시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>독립촉성 중앙협의회 결성</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>15시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>척사학교 반포</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">헌종 </t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>정조 : 1795</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>15시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>참설직 설치</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr"/>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>공민왕 : 1354년</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>15시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>조선정판사 사건</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>15시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>메가타 스티븐스 고문 파견</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1905~1910 </t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>1900~1904 : 1904</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>15시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>백제 창왕명 석조 사리감 제작</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">문주왕 </t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>위덕왕 : 565년</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>15시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>김종직의 조의제문, 김일손 등 사림 세력 축출</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>갑자사화</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>무오사화</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>15시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>제2차 수신사(1880)로 김홍집(『조선책략』) 파견</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>박규수</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>김홍집</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>15시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>초기 개화파 :
+ 박규수, 오경석, 유홍기 등의 외국의 통상 수교 수용과 근대적 기술 도입 주장</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>김홍집</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>오경석</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>15시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>신종, 최충헌</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>고종, 최우</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>15시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>조일 통상장정</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1890년대 </t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>1870년대 : 1876</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>20230125</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>15시 43분</t>
         </is>
       </c>
     </row>
